--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_3_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>927113.5585456553</v>
+        <v>925225.977029254</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,10 +713,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>261.7615324384235</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>215.4905297143698</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>50.4315177721688</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>107.1610977402686</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>135.4095352681604</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,10 +944,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>20.16013205738677</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>168.7756050755992</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>219.2715106616308</v>
+        <v>363.5687190723341</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>129.0246247964033</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>127.0044127072329</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>12.43411959153042</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>101.2898147863545</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>36.74571320013092</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185831</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,13 +1847,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.2898147863547</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>8.701699039067535</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7779186742432</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>109.188007196468</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,16 +2293,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750031</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185899</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>55.72442649149424</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>94.16481274941181</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965513</v>
+        <v>93.4122163896551</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801194</v>
+        <v>91.23070601801192</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437402</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>42.20569823125827</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389789</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571476</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523557</v>
+        <v>54.76109577523554</v>
       </c>
       <c r="S31" t="n">
         <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>21.49673558073972</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
         <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522964</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
         <v>99.1149309689872</v>
@@ -3199,7 +3199,7 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789549</v>
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1376.372217881286</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>1729.1408731514</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>1376.372217881286</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X2" t="n">
-        <v>1376.372217881286</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y2" t="n">
-        <v>1376.372217881286</v>
+        <v>1731.901079302655</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931989</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U4" t="n">
-        <v>286.5323736931989</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>286.5323736931989</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1112.426648284105</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="C5" t="n">
-        <v>1112.426648284105</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="D5" t="n">
-        <v>1112.426648284105</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="E5" t="n">
-        <v>726.6383956858608</v>
+        <v>769.0955750279686</v>
       </c>
       <c r="F5" t="n">
-        <v>315.6524908962533</v>
+        <v>358.109670238361</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>344.186266176952</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X5" t="n">
-        <v>1112.426648284105</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y5" t="n">
-        <v>1112.426648284105</v>
+        <v>1154.883827626213</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,13 +4650,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>74.30675157530058</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>74.30675157530058</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>74.30675157530058</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>513.840561024597</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W7" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.4233909876363</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>882.8926947117852</v>
+        <v>770.969123535386</v>
       </c>
       <c r="C8" t="n">
-        <v>882.8926947117852</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4835,19 +4835,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>1881.118241157406</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X8" t="n">
-        <v>1659.631866751719</v>
+        <v>1161.108455511198</v>
       </c>
       <c r="Y8" t="n">
-        <v>1269.492534775907</v>
+        <v>770.969123535386</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>471.403877728658</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>182.230267383226</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5027,13 +5027,13 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2312.465467126434</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>688.5786845598167</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>519.6425016319098</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5203,16 +5203,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033468</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W13" t="n">
-        <v>909.3712637033468</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="X13" t="n">
-        <v>909.3712637033468</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y13" t="n">
-        <v>688.5786845598167</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,7 +5273,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823786</v>
@@ -5294,34 +5294,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>474.8900731662877</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365143</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
-        <v>1461.799388537568</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1238.013973327074</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="U16" t="n">
-        <v>1238.013973327074</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V16" t="n">
-        <v>983.329485121187</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W16" t="n">
-        <v>693.9123150842264</v>
+        <v>130.9054447954963</v>
       </c>
       <c r="X16" t="n">
-        <v>465.9227641862091</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5492,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,31 +5531,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>181.9314425141228</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>592.8217113586354</v>
+        <v>315.6192635197074</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115524</v>
+        <v>929.516333276596</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395486</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>525.6009593486384</v>
+        <v>199.5300356889269</v>
       </c>
       <c r="C19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>356.6647764207315</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1490.126675568945</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1290.206665484497</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1290.206665484497</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U19" t="n">
-        <v>1001.078026698055</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V19" t="n">
-        <v>746.3935384921685</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W19" t="n">
-        <v>746.3935384921685</v>
+        <v>420.322614832457</v>
       </c>
       <c r="X19" t="n">
-        <v>746.3935384921685</v>
+        <v>420.322614832457</v>
       </c>
       <c r="Y19" t="n">
-        <v>525.6009593486384</v>
+        <v>199.5300356889269</v>
       </c>
     </row>
     <row r="20">
@@ -5729,25 +5729,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
@@ -5768,31 +5768,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>674.718571787825</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>674.718571787825</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>524.6019323754892</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>524.6019323754892</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>524.6019323754892</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1388.625354197834</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1188.705344113386</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247856</v>
+        <v>964.9199289028916</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247856</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="V22" t="n">
-        <v>964.1357418247856</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="W22" t="n">
-        <v>674.718571787825</v>
+        <v>675.7912901164498</v>
       </c>
       <c r="X22" t="n">
-        <v>674.718571787825</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y22" t="n">
-        <v>674.718571787825</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823795</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751409</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,22 +6011,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277032</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341671</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141287</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1646.274692278279</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383443</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324575</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954969</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,40 +6209,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6385,49 +6385,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S28" t="n">
-        <v>1442.628971071545</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1218.843555861051</v>
+        <v>964.1357418247853</v>
       </c>
       <c r="U28" t="n">
-        <v>929.714917074609</v>
+        <v>675.0071030383435</v>
       </c>
       <c r="V28" t="n">
-        <v>675.0304288687223</v>
+        <v>420.3226148324566</v>
       </c>
       <c r="W28" t="n">
-        <v>675.0304288687223</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6488,22 +6488,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215239</v>
+        <v>439.532429954221</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749879</v>
+        <v>326.3571123076852</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440231</v>
+        <v>232.0013381767205</v>
       </c>
       <c r="E31" t="n">
-        <v>451.191499343001</v>
+        <v>139.8491098756982</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264616</v>
+        <v>139.8491098756982</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864676</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933507</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667515</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.6688721962058</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021648</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1714.938805772216</v>
+        <v>1568.628130167072</v>
       </c>
       <c r="U31" t="n">
-        <v>1481.571032267145</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1282.647409342629</v>
+        <v>1136.336733737485</v>
       </c>
       <c r="W31" t="n">
-        <v>1048.991104587039</v>
+        <v>902.6804289818954</v>
       </c>
       <c r="X31" t="n">
-        <v>876.7624189703927</v>
+        <v>730.4517433652489</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703927</v>
+        <v>565.4200295030898</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822457</v>
@@ -6698,13 +6698,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6725,22 +6725,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
         <v>221.529509210313</v>
@@ -6856,7 +6856,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254956</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6959,13 +6959,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7002,37 +7002,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>592.8217113586345</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115523</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,10 +7175,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
         <v>320.8847398504513</v>
@@ -7327,16 +7327,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,22 +7394,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783208</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,13 +7588,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,43 +7631,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7728,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,7 +7804,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
@@ -7813,7 +7813,7 @@
         <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>8.406710013102128</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627457</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>189.0022427662469</v>
       </c>
       <c r="L15" t="n">
-        <v>176.7176547498455</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>43.65987261462567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>28.12263706263042</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>38.86002301949884</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720747</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9717,19 +9717,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>306.1147370139954</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>91.23759968302153</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>39.88923345256772</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,16 +10437,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>15.83804904622852</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>182.0340742867944</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622824</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>360.5026862907256</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>165.9802687929763</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>182.0340742867951</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23416,13 +23416,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>136.1813534266819</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>124.4198406026826</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>161.1750967834723</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.95700631227318</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>101.2626533647253</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>2.715649789134403</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.7763452073248374</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,16 +24181,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338616</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>192.3581855871782</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.196383492109</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>192.3581855871792</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437399</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>69.08461360356235</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897887</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571473</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>144.8475688490923</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.700062395888381e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>998959.4632405674</v>
+        <v>998959.4632405672</v>
       </c>
     </row>
     <row r="9">
@@ -26317,10 +26317,10 @@
         <v>410520.8849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
-        <v>391029.0597377088</v>
+        <v>391029.0597377089</v>
       </c>
       <c r="F2" t="n">
         <v>391029.0597377088</v>
@@ -26329,31 +26329,31 @@
         <v>391029.0597377089</v>
       </c>
       <c r="H2" t="n">
+        <v>391029.0597377089</v>
+      </c>
+      <c r="I2" t="n">
         <v>391029.0597377088</v>
-      </c>
-      <c r="I2" t="n">
-        <v>391029.059737709</v>
       </c>
       <c r="J2" t="n">
         <v>391029.0597377089</v>
       </c>
       <c r="K2" t="n">
-        <v>406822.1373452705</v>
+        <v>406822.1373452706</v>
       </c>
       <c r="L2" t="n">
         <v>410520.8849321422</v>
       </c>
       <c r="M2" t="n">
-        <v>410520.8849321424</v>
+        <v>410520.8849321422</v>
       </c>
       <c r="N2" t="n">
-        <v>410520.8849321422</v>
+        <v>410520.8849321421</v>
       </c>
       <c r="O2" t="n">
         <v>410520.8849321422</v>
       </c>
       <c r="P2" t="n">
-        <v>410520.8849321422</v>
+        <v>410520.8849321423</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284575</v>
+        <v>44162.60530284584</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086673</v>
+        <v>10342.9068008667</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284583</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687076</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.2301010673</v>
+        <v>40339.23010106731</v>
       </c>
       <c r="L4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="M4" t="n">
         <v>44593.39482819118</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>44593.39482819119</v>
+      </c>
+      <c r="O4" t="n">
         <v>44593.39482819122</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.39482819122</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26470,28 +26470,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022281</v>
@@ -26500,7 +26500,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-427938.9401323368</v>
+        <v>-427938.9401323366</v>
       </c>
       <c r="C6" t="n">
         <v>162028.9390822078</v>
       </c>
       <c r="D6" t="n">
-        <v>162028.9390822078</v>
+        <v>162028.9390822077</v>
       </c>
       <c r="E6" t="n">
-        <v>-248292.9102747747</v>
+        <v>-248390.3694007466</v>
       </c>
       <c r="F6" t="n">
-        <v>276867.1262021214</v>
+        <v>276769.6670761493</v>
       </c>
       <c r="G6" t="n">
-        <v>276867.1262021215</v>
+        <v>276769.6670761494</v>
       </c>
       <c r="H6" t="n">
-        <v>276867.1262021214</v>
+        <v>276769.6670761494</v>
       </c>
       <c r="I6" t="n">
-        <v>276867.1262021217</v>
+        <v>276769.6670761493</v>
       </c>
       <c r="J6" t="n">
-        <v>100443.9070095284</v>
+        <v>100346.4478835567</v>
       </c>
       <c r="K6" t="n">
-        <v>225692.0934111347</v>
+        <v>225673.5996732003</v>
       </c>
       <c r="L6" t="n">
         <v>257869.4774830589</v>
       </c>
       <c r="M6" t="n">
-        <v>133411.3690500887</v>
+        <v>133411.3690500885</v>
       </c>
       <c r="N6" t="n">
-        <v>268212.3842839256</v>
+        <v>268212.3842839255</v>
       </c>
       <c r="O6" t="n">
         <v>268212.3842839256</v>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964068</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26750,19 +26750,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541003</v>
@@ -26774,7 +26774,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108342</v>
+        <v>12.92863350108338</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855729</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855719</v>
+        <v>55.20325662855731</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>65.9907260317114</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>170.7474089416838</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>236.0914805644222</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>306.6230722805263</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>188.5132374961968</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>147.1496702016642</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>83.3620382482288</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>150.4595900168382</v>
+        <v>6.162381606134943</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,13 +28062,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>96.01048066168096</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>125.1332306165951</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28567,13 +28567,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855726</v>
       </c>
     </row>
     <row r="32">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="38">
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -32233,40 +32233,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,10 +32306,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32318,7 +32318,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32327,10 +32327,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32406,7 +32406,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,10 +32418,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32640,10 +32640,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,31 +32874,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>215.5001249446268</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35659,7 +35659,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35726,10 +35726,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>339.5776813541862</v>
       </c>
       <c r="L15" t="n">
-        <v>425.9753597058698</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35738,7 +35738,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
@@ -35747,7 +35747,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>85.5700515695323</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>178.6980756505696</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -35981,10 +35981,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>321.223725260607</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415088</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504661</v>
+        <v>616.5391140644617</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>373.6013019241296</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36850,10 +36850,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>127.9022662376418</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412274</v>
+        <v>67.71102679412277</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084858</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341608</v>
@@ -37008,7 +37008,7 @@
         <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043197</v>
+        <v>94.428956600432</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,16 +37157,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>222.9314639777532</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>332.6095128747336</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313024</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>670.9270633411919</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,13 +37637,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>476.4046458434426</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38108,10 +38108,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>464.3977765279033</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
